--- a/z/data/model/SVHC_DCU.xlsx
+++ b/z/data/model/SVHC_DCU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenhuai\python\work\z\data\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DF844E-C52B-4FA3-882E-0123066B8A40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B78CBB-0FAC-4E41-9D23-386234A0C348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7898" yWindow="1695" windowWidth="15391" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SVHC" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="441">
   <si>
     <t>No.</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1763,10 +1763,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Element </t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>Sample Conc.</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -2430,6 +2426,30 @@
   </si>
   <si>
     <t>No.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.同一个Sample ID需要添加测试元素直接在末行添加即可</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.测试元素数据引用即可</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.该sheets名字只能是Data，DCU模板sheets名字只能是DCU-Result</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.第一行表名不能变，同时不能重复</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2771,7 +2791,7 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3169,6 +3189,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3301,15 +3327,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>940490</xdr:colOff>
+          <xdr:colOff>911915</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>181803</xdr:rowOff>
+          <xdr:rowOff>110366</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>67297</xdr:colOff>
+          <xdr:colOff>38722</xdr:colOff>
           <xdr:row>112</xdr:row>
-          <xdr:rowOff>191122</xdr:rowOff>
+          <xdr:rowOff>119684</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20081,7 +20107,7 @@
     </row>
     <row r="2" spans="1:16383" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>249</v>
@@ -20167,7 +20193,7 @@
     </row>
     <row r="4" spans="1:16383" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="124" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="32">
         <v>5</v>
@@ -20186,7 +20212,7 @@
         <v>226.1</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
@@ -20213,7 +20239,7 @@
     </row>
     <row r="5" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="125" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" s="32">
         <v>9</v>
@@ -20232,7 +20258,7 @@
         <v>129.84</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>193</v>
@@ -20259,7 +20285,7 @@
     </row>
     <row r="6" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="125" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B6" s="32">
         <v>10</v>
@@ -20278,7 +20304,7 @@
         <v>298</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>194</v>
@@ -20340,7 +20366,7 @@
     </row>
     <row r="8" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="125" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B8" s="32">
         <v>12</v>
@@ -20421,7 +20447,7 @@
     </row>
     <row r="10" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B10" s="32">
         <v>13</v>
@@ -20467,7 +20493,7 @@
     </row>
     <row r="11" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="125" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B11" s="32">
         <v>14</v>
@@ -20513,7 +20539,7 @@
     </row>
     <row r="12" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B12" s="32">
         <v>25</v>
@@ -20594,7 +20620,7 @@
     </row>
     <row r="14" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="125" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B14" s="32">
         <v>26</v>
@@ -20675,7 +20701,7 @@
     </row>
     <row r="16" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="125" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B16" s="32">
         <v>27</v>
@@ -20791,7 +20817,7 @@
     </row>
     <row r="19" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="125" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B19" s="32">
         <v>28</v>
@@ -21093,7 +21119,7 @@
     </row>
     <row r="27" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="125" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B27" s="32">
         <v>29</v>
@@ -21363,7 +21389,7 @@
     </row>
     <row r="34" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="125" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B34" s="32">
         <v>32</v>
@@ -21376,13 +21402,13 @@
         <v>209</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F34" s="25">
         <v>61.83</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>85</v>
@@ -21409,7 +21435,7 @@
     </row>
     <row r="35" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="125" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B35" s="32">
         <v>33</v>
@@ -21428,7 +21454,7 @@
         <v>201.22</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>11</v>
@@ -21490,7 +21516,7 @@
     </row>
     <row r="37" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="125" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B37" s="32">
         <v>34</v>
@@ -21509,7 +21535,7 @@
         <v>381.37</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>12</v>
@@ -21571,7 +21597,7 @@
     </row>
     <row r="39" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="125" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B39" s="32">
         <v>35</v>
@@ -21590,7 +21616,7 @@
         <v>161.99</v>
       </c>
       <c r="G39" s="76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>194</v>
@@ -21652,7 +21678,7 @@
     </row>
     <row r="41" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="125" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B41" s="32">
         <v>36</v>
@@ -21698,7 +21724,7 @@
     </row>
     <row r="42" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="125" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B42" s="32">
         <v>37</v>
@@ -21717,7 +21743,7 @@
         <v>252.07</v>
       </c>
       <c r="G42" s="94" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>47</v>
@@ -21744,7 +21770,7 @@
     </row>
     <row r="43" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="125" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B43" s="32">
         <v>38</v>
@@ -21763,7 +21789,7 @@
         <v>294.18</v>
       </c>
       <c r="G43" s="67" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>47</v>
@@ -21790,7 +21816,7 @@
     </row>
     <row r="44" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="125" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B44" s="32">
         <v>39</v>
@@ -21836,7 +21862,7 @@
     </row>
     <row r="45" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="125" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B45" s="32">
         <v>40</v>
@@ -21855,7 +21881,7 @@
         <v>183</v>
       </c>
       <c r="G45" s="67" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>21</v>
@@ -21882,7 +21908,7 @@
     </row>
     <row r="46" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="125" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B46" s="32">
         <v>41</v>
@@ -21928,7 +21954,7 @@
     </row>
     <row r="47" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="125" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B47" s="32">
         <v>42</v>
@@ -21974,7 +22000,7 @@
     </row>
     <row r="48" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="125" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B48" s="58">
         <v>45</v>
@@ -22020,7 +22046,7 @@
     </row>
     <row r="49" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="125" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B49" s="32">
         <v>46</v>
@@ -22039,7 +22065,7 @@
         <v>118</v>
       </c>
       <c r="G49" s="45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>22</v>
@@ -22139,7 +22165,7 @@
     </row>
     <row r="52" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="125" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B52" s="32">
         <v>48</v>
@@ -22220,7 +22246,7 @@
     </row>
     <row r="54" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="125" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B54" s="96">
         <v>58</v>
@@ -22266,7 +22292,7 @@
     </row>
     <row r="55" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="125" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B55" s="96">
         <v>61</v>
@@ -22347,7 +22373,7 @@
     </row>
     <row r="57" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="125" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B57" s="96">
         <v>62</v>
@@ -22393,7 +22419,7 @@
     </row>
     <row r="58" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="125" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B58" s="32">
         <v>64</v>
@@ -22403,7 +22429,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E58" s="89" t="s">
         <v>68</v>
@@ -22439,7 +22465,7 @@
     </row>
     <row r="59" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="125" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B59" s="32">
         <v>65</v>
@@ -22485,7 +22511,7 @@
     </row>
     <row r="60" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="125" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B60" s="32">
         <v>66</v>
@@ -22504,7 +22530,7 @@
         <v>450.3</v>
       </c>
       <c r="G60" s="68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>51</v>
@@ -22531,7 +22557,7 @@
     </row>
     <row r="61" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="125" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B61" s="32">
         <v>68</v>
@@ -22550,7 +22576,7 @@
         <v>579</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>160</v>
@@ -22612,7 +22638,7 @@
     </row>
     <row r="63" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="125" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B63" s="32">
         <v>70</v>
@@ -22631,7 +22657,7 @@
         <v>418.9</v>
       </c>
       <c r="G63" s="71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>162</v>
@@ -22728,7 +22754,7 @@
     </row>
     <row r="66" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="125" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B66" s="32">
         <v>71</v>
@@ -22807,7 +22833,7 @@
     </row>
     <row r="68" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="125" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B68" s="32">
         <v>74</v>
@@ -22826,7 +22852,7 @@
         <v>69.62</v>
       </c>
       <c r="G68" s="68" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>85</v>
@@ -22852,7 +22878,7 @@
     </row>
     <row r="69" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="125" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B69" s="32">
         <v>76</v>
@@ -22871,7 +22897,7 @@
         <v>397.4</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>89</v>
@@ -22897,7 +22923,7 @@
     </row>
     <row r="70" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="125" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B70" s="56">
         <v>101</v>
@@ -22907,16 +22933,16 @@
         <v>0</v>
       </c>
       <c r="D70" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="E70" s="25" t="s">
         <v>276</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>277</v>
       </c>
       <c r="F70" s="25">
         <v>303.83999999999997</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H70" s="25" t="s">
         <v>255</v>
@@ -22943,7 +22969,7 @@
     </row>
     <row r="71" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="125" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B71" s="32">
         <v>102</v>
@@ -22988,7 +23014,7 @@
     </row>
     <row r="72" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="125" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B72" s="32">
         <v>103</v>
@@ -23033,7 +23059,7 @@
     </row>
     <row r="73" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="125" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B73" s="32">
         <v>104</v>
@@ -23078,7 +23104,7 @@
     </row>
     <row r="74" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="125" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B74" s="32">
         <v>105</v>
@@ -23088,7 +23114,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E74" s="14" t="s">
         <v>120</v>
@@ -23123,7 +23149,7 @@
     </row>
     <row r="75" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="125" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B75" s="32">
         <v>106</v>
@@ -23168,7 +23194,7 @@
     </row>
     <row r="76" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="125" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B76" s="32">
         <v>107</v>
@@ -23213,7 +23239,7 @@
     </row>
     <row r="77" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="125" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B77" s="32">
         <v>108</v>
@@ -23292,7 +23318,7 @@
     </row>
     <row r="79" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="125" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B79" s="32">
         <v>109</v>
@@ -23337,7 +23363,7 @@
     </row>
     <row r="80" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="125" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B80" s="32">
         <v>110</v>
@@ -23382,7 +23408,7 @@
     </row>
     <row r="81" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="125" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B81" s="32">
         <v>111</v>
@@ -23427,7 +23453,7 @@
     </row>
     <row r="82" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="125" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B82" s="32">
         <v>112</v>
@@ -23472,7 +23498,7 @@
     </row>
     <row r="83" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="125" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B83" s="32">
         <v>113</v>
@@ -23551,7 +23577,7 @@
     </row>
     <row r="85" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="125" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B85" s="32">
         <v>114</v>
@@ -23664,7 +23690,7 @@
     </row>
     <row r="88" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="125" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B88" s="32">
         <v>115</v>
@@ -23683,7 +23709,7 @@
         <v>526.4</v>
       </c>
       <c r="G88" s="66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>89</v>
@@ -23709,7 +23735,7 @@
     </row>
     <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="125" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B89" s="32">
         <v>116</v>
@@ -23858,7 +23884,7 @@
     </row>
     <row r="93" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="125" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B93" s="32">
         <v>117</v>
@@ -23971,7 +23997,7 @@
     </row>
     <row r="96" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="125" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B96" s="32">
         <v>118</v>
@@ -24050,7 +24076,7 @@
     </row>
     <row r="98" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="125" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B98" s="32">
         <v>119</v>
@@ -24069,7 +24095,7 @@
         <v>287.26</v>
       </c>
       <c r="G98" s="68" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>89</v>
@@ -24095,7 +24121,7 @@
     </row>
     <row r="99" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="125" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B99" s="32">
         <v>120</v>
@@ -24140,7 +24166,7 @@
     </row>
     <row r="100" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="125" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B100" s="32">
         <v>121</v>
@@ -24185,7 +24211,7 @@
     </row>
     <row r="101" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="125" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B101" s="32">
         <v>122</v>
@@ -24230,7 +24256,7 @@
     </row>
     <row r="102" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="125" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B102" s="32">
         <v>139</v>
@@ -24249,7 +24275,7 @@
         <v>112.4</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>180</v>
@@ -24275,7 +24301,7 @@
     </row>
     <row r="103" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="125" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B103" s="32">
         <v>140</v>
@@ -24294,7 +24320,7 @@
         <v>128.4</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>180</v>
@@ -24320,7 +24346,7 @@
     </row>
     <row r="104" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="125" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B104" s="32">
         <v>145</v>
@@ -24339,7 +24365,7 @@
         <v>144.47999999999999</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>180</v>
@@ -24365,7 +24391,7 @@
     </row>
     <row r="105" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="125" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B105" s="32">
         <v>150</v>
@@ -24410,7 +24436,7 @@
     </row>
     <row r="106" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="125" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B106" s="57">
         <v>153</v>
@@ -24429,7 +24455,7 @@
         <v>183.32</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>187</v>
@@ -24455,7 +24481,7 @@
     </row>
     <row r="107" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="125" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B107" s="57">
         <v>154</v>
@@ -24534,7 +24560,7 @@
     </row>
     <row r="109" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="125" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B109" s="57">
         <v>155</v>
@@ -24553,7 +24579,7 @@
         <v>153.86000000000001</v>
       </c>
       <c r="G109" s="83" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>11</v>
@@ -24613,7 +24639,7 @@
     </row>
     <row r="111" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="125" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B111" s="57">
         <v>156</v>
@@ -24632,7 +24658,7 @@
         <v>150.41</v>
       </c>
       <c r="G111" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>187</v>
@@ -24658,7 +24684,7 @@
     </row>
     <row r="112" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="125" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B112" s="57">
         <v>157</v>
@@ -24677,7 +24703,7 @@
         <v>208.47</v>
       </c>
       <c r="G112" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H112" s="6" t="s">
         <v>187</v>
@@ -24703,7 +24729,7 @@
     </row>
     <row r="113" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="125" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B113" s="96">
         <v>180</v>
@@ -24716,13 +24742,13 @@
         <v>242</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F113" s="32">
         <v>236.42</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H113" s="8" t="s">
         <v>187</v>
@@ -24748,7 +24774,7 @@
     </row>
     <row r="114" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="125" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B114" s="96">
         <v>181</v>
@@ -24767,7 +24793,7 @@
         <v>172.42</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H114" s="8" t="s">
         <v>187</v>
@@ -24793,7 +24819,7 @@
     </row>
     <row r="115" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="125" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B115" s="96">
         <v>182</v>
@@ -24812,7 +24838,7 @@
         <v>146.43</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H115" s="8" t="s">
         <v>187</v>
@@ -24838,7 +24864,7 @@
     </row>
     <row r="116" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="125" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B116" s="32">
         <v>190</v>
@@ -24857,7 +24883,7 @@
         <v>207.2</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H116" s="8" t="s">
         <v>51</v>
@@ -24883,7 +24909,7 @@
     </row>
     <row r="117" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="125" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B117" s="32">
         <v>191</v>
@@ -24902,7 +24928,7 @@
         <v>89.65</v>
       </c>
       <c r="G117" s="44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>11</v>
@@ -25020,15 +25046,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>938213</xdr:colOff>
+                <xdr:colOff>909638</xdr:colOff>
                 <xdr:row>111</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>109538</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>112</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:rowOff>119063</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -25045,10 +25071,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -25061,16 +25087,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="128" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="129" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C1" s="127" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1" s="127" t="s">
         <v>256</v>
-      </c>
-      <c r="D1" s="127" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -25079,7 +25105,7 @@
       </c>
       <c r="B2" s="130"/>
       <c r="C2" s="127" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D2" s="127"/>
     </row>
@@ -25092,7 +25118,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="127" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D3" s="127"/>
     </row>
@@ -25105,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="127" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D4" s="127"/>
     </row>
@@ -25118,7 +25144,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D5" s="127"/>
     </row>
@@ -25131,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="127" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D6" s="127"/>
     </row>
@@ -25144,7 +25170,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="127" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D7" s="127"/>
     </row>
@@ -25157,7 +25183,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="127" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D8" s="127"/>
     </row>
@@ -25170,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="127" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D9" s="127"/>
     </row>
@@ -25196,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="127" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D11" s="127"/>
     </row>
@@ -25209,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="127" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D12" s="127"/>
     </row>
@@ -25222,7 +25248,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="127" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D13" s="127"/>
     </row>
@@ -25235,7 +25261,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="127" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D14" s="127"/>
     </row>
@@ -25248,7 +25274,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="127" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D15" s="127"/>
     </row>
@@ -25261,11 +25287,11 @@
         <v>0</v>
       </c>
       <c r="C16" s="127" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D16" s="127"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="128">
         <v>16</v>
       </c>
@@ -25274,11 +25300,11 @@
         <v>0</v>
       </c>
       <c r="C17" s="127" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D17" s="127"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="128">
         <v>17</v>
       </c>
@@ -25287,11 +25313,11 @@
         <v>0</v>
       </c>
       <c r="C18" s="127" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D18" s="127"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="128">
         <v>18</v>
       </c>
@@ -25300,11 +25326,11 @@
         <v>0</v>
       </c>
       <c r="C19" s="127" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D19" s="127"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="128">
         <v>19</v>
       </c>
@@ -25313,11 +25339,11 @@
         <v>0</v>
       </c>
       <c r="C20" s="127" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D20" s="127"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="128">
         <v>20</v>
       </c>
@@ -25330,7 +25356,64 @@
       </c>
       <c r="D21" s="127"/>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="132" t="s">
+        <v>435</v>
+      </c>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="133" t="s">
+        <v>436</v>
+      </c>
+      <c r="B28" s="133"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="133" t="s">
+        <v>437</v>
+      </c>
+      <c r="B29" s="133"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="133" t="s">
+        <v>438</v>
+      </c>
+      <c r="B30" s="133"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="133" t="s">
+        <v>440</v>
+      </c>
+      <c r="B31" s="133"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B1">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
@@ -25349,7 +25432,7 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -25364,25 +25447,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="117" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="C1" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="D1" s="118" t="s">
         <v>281</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="E1" s="118" t="s">
         <v>282</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="F1" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="G1" s="118" t="s">
         <v>284</v>
-      </c>
-      <c r="G1" s="118" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -25391,17 +25474,17 @@
         <v>0</v>
       </c>
       <c r="B2" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="123" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D2" s="121">
         <f>SVHC!C3</f>
         <v>0</v>
       </c>
       <c r="E2" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -25410,17 +25493,17 @@
         <v>0</v>
       </c>
       <c r="B3" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C3" s="123" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D3" s="121">
         <f>SVHC!C4</f>
         <v>0</v>
       </c>
       <c r="E3" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -25429,17 +25512,17 @@
         <v>0</v>
       </c>
       <c r="B4" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" s="123" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D4" s="121">
         <f>SVHC!C5</f>
         <v>0</v>
       </c>
       <c r="E4" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -25448,17 +25531,17 @@
         <v>0</v>
       </c>
       <c r="B5" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="123" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D5" s="121">
         <f>SVHC!C6</f>
         <v>0</v>
       </c>
       <c r="E5" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -25467,17 +25550,17 @@
         <v>0</v>
       </c>
       <c r="B6" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="123" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D6" s="121">
         <f>SVHC!C8</f>
         <v>0</v>
       </c>
       <c r="E6" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -25486,17 +25569,17 @@
         <v>0</v>
       </c>
       <c r="B7" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7" s="123" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D7" s="121">
         <f>SVHC!C10</f>
         <v>0</v>
       </c>
       <c r="E7" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -25505,17 +25588,17 @@
         <v>0</v>
       </c>
       <c r="B8" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C8" s="123" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D8" s="121">
         <f>SVHC!C11</f>
         <v>0</v>
       </c>
       <c r="E8" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -25524,17 +25607,17 @@
         <v>0</v>
       </c>
       <c r="B9" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C9" s="123" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D9" s="121">
         <f>SVHC!C12</f>
         <v>0</v>
       </c>
       <c r="E9" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -25543,17 +25626,17 @@
         <v>0</v>
       </c>
       <c r="B10" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" s="123" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D10" s="121">
         <f>SVHC!C14</f>
         <v>0</v>
       </c>
       <c r="E10" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -25562,17 +25645,17 @@
         <v>0</v>
       </c>
       <c r="B11" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C11" s="123" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D11" s="121">
         <f>SVHC!C16</f>
         <v>0</v>
       </c>
       <c r="E11" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -25581,17 +25664,17 @@
         <v>0</v>
       </c>
       <c r="B12" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C12" s="123" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D12" s="121">
         <f>SVHC!C19</f>
         <v>0</v>
       </c>
       <c r="E12" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -25600,17 +25683,17 @@
         <v>0</v>
       </c>
       <c r="B13" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13" s="123" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D13" s="121">
         <f>SVHC!C27</f>
         <v>0</v>
       </c>
       <c r="E13" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -25619,17 +25702,17 @@
         <v>0</v>
       </c>
       <c r="B14" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14" s="123" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D14" s="121">
         <f>SVHC!C34</f>
         <v>0</v>
       </c>
       <c r="E14" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -25638,17 +25721,17 @@
         <v>0</v>
       </c>
       <c r="B15" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C15" s="123" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D15" s="121">
         <f>SVHC!C35</f>
         <v>0</v>
       </c>
       <c r="E15" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -25657,17 +25740,17 @@
         <v>0</v>
       </c>
       <c r="B16" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C16" s="123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D16" s="121">
         <f>SVHC!C37</f>
         <v>0</v>
       </c>
       <c r="E16" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -25676,17 +25759,17 @@
         <v>0</v>
       </c>
       <c r="B17" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C17" s="123" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D17" s="121">
         <f>SVHC!C39</f>
         <v>0</v>
       </c>
       <c r="E17" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -25695,17 +25778,17 @@
         <v>0</v>
       </c>
       <c r="B18" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C18" s="123" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D18" s="121">
         <f>SVHC!C41</f>
         <v>0</v>
       </c>
       <c r="E18" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -25714,17 +25797,17 @@
         <v>0</v>
       </c>
       <c r="B19" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C19" s="123" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D19" s="121">
         <f>SVHC!C42</f>
         <v>0</v>
       </c>
       <c r="E19" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -25733,17 +25816,17 @@
         <v>0</v>
       </c>
       <c r="B20" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C20" s="123" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D20" s="121">
         <f>SVHC!C43</f>
         <v>0</v>
       </c>
       <c r="E20" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -25752,17 +25835,17 @@
         <v>0</v>
       </c>
       <c r="B21" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C21" s="123" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D21" s="121">
         <f>SVHC!C44</f>
         <v>0</v>
       </c>
       <c r="E21" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -25771,17 +25854,17 @@
         <v>0</v>
       </c>
       <c r="B22" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C22" s="123" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D22" s="121">
         <f>SVHC!C45</f>
         <v>0</v>
       </c>
       <c r="E22" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -25790,17 +25873,17 @@
         <v>0</v>
       </c>
       <c r="B23" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C23" s="123" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D23" s="121">
         <f>SVHC!C46</f>
         <v>0</v>
       </c>
       <c r="E23" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -25809,17 +25892,17 @@
         <v>0</v>
       </c>
       <c r="B24" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C24" s="123" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D24" s="121">
         <f>SVHC!C47</f>
         <v>0</v>
       </c>
       <c r="E24" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -25828,17 +25911,17 @@
         <v>0</v>
       </c>
       <c r="B25" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C25" s="123" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D25" s="121">
         <f>SVHC!C48</f>
         <v>0</v>
       </c>
       <c r="E25" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -25847,17 +25930,17 @@
         <v>0</v>
       </c>
       <c r="B26" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C26" s="123" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D26" s="121">
         <f>SVHC!C49</f>
         <v>0</v>
       </c>
       <c r="E26" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -25866,17 +25949,17 @@
         <v>0</v>
       </c>
       <c r="B27" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C27" s="123" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D27" s="121">
         <f>SVHC!C52</f>
         <v>0</v>
       </c>
       <c r="E27" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -25885,17 +25968,17 @@
         <v>0</v>
       </c>
       <c r="B28" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C28" s="123" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D28" s="121">
         <f>SVHC!C54</f>
         <v>0</v>
       </c>
       <c r="E28" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -25904,17 +25987,17 @@
         <v>0</v>
       </c>
       <c r="B29" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C29" s="123" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D29" s="121">
         <f>SVHC!C55</f>
         <v>0</v>
       </c>
       <c r="E29" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -25923,17 +26006,17 @@
         <v>0</v>
       </c>
       <c r="B30" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C30" s="123" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D30" s="121">
         <f>SVHC!C57</f>
         <v>0</v>
       </c>
       <c r="E30" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -25942,17 +26025,17 @@
         <v>0</v>
       </c>
       <c r="B31" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C31" s="123" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D31" s="121">
         <f>SVHC!C58</f>
         <v>0</v>
       </c>
       <c r="E31" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -25961,17 +26044,17 @@
         <v>0</v>
       </c>
       <c r="B32" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C32" s="123" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D32" s="121">
         <f>SVHC!C59</f>
         <v>0</v>
       </c>
       <c r="E32" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -25980,17 +26063,17 @@
         <v>0</v>
       </c>
       <c r="B33" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C33" s="123" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D33" s="121">
         <f>SVHC!C60</f>
         <v>0</v>
       </c>
       <c r="E33" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -25999,17 +26082,17 @@
         <v>0</v>
       </c>
       <c r="B34" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C34" s="123" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D34" s="121">
         <f>SVHC!C61</f>
         <v>0</v>
       </c>
       <c r="E34" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -26018,17 +26101,17 @@
         <v>0</v>
       </c>
       <c r="B35" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C35" s="123" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D35" s="121">
         <f>SVHC!C63</f>
         <v>0</v>
       </c>
       <c r="E35" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -26037,17 +26120,17 @@
         <v>0</v>
       </c>
       <c r="B36" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C36" s="123" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D36" s="121">
         <f>SVHC!C66</f>
         <v>0</v>
       </c>
       <c r="E36" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -26056,17 +26139,17 @@
         <v>0</v>
       </c>
       <c r="B37" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C37" s="123" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D37" s="121">
         <f>SVHC!C68</f>
         <v>0</v>
       </c>
       <c r="E37" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -26075,17 +26158,17 @@
         <v>0</v>
       </c>
       <c r="B38" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C38" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D38" s="121">
         <f>SVHC!C69</f>
         <v>0</v>
       </c>
       <c r="E38" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -26094,17 +26177,17 @@
         <v>0</v>
       </c>
       <c r="B39" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C39" s="123" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D39" s="121">
         <f>SVHC!C70</f>
         <v>0</v>
       </c>
       <c r="E39" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -26113,17 +26196,17 @@
         <v>0</v>
       </c>
       <c r="B40" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C40" s="123" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D40" s="121">
         <f>SVHC!C71</f>
         <v>0</v>
       </c>
       <c r="E40" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -26132,17 +26215,17 @@
         <v>0</v>
       </c>
       <c r="B41" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C41" s="123" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D41" s="121">
         <f>SVHC!C72</f>
         <v>0</v>
       </c>
       <c r="E41" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -26151,17 +26234,17 @@
         <v>0</v>
       </c>
       <c r="B42" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C42" s="123" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D42" s="121">
         <f>SVHC!C73</f>
         <v>0</v>
       </c>
       <c r="E42" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -26170,17 +26253,17 @@
         <v>0</v>
       </c>
       <c r="B43" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C43" s="123" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D43" s="121">
         <f>SVHC!C74</f>
         <v>0</v>
       </c>
       <c r="E43" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -26189,17 +26272,17 @@
         <v>0</v>
       </c>
       <c r="B44" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C44" s="123" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D44" s="121">
         <f>SVHC!C75</f>
         <v>0</v>
       </c>
       <c r="E44" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -26208,17 +26291,17 @@
         <v>0</v>
       </c>
       <c r="B45" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C45" s="123" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D45" s="121">
         <f>SVHC!C76</f>
         <v>0</v>
       </c>
       <c r="E45" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -26227,17 +26310,17 @@
         <v>0</v>
       </c>
       <c r="B46" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C46" s="123" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D46" s="121">
         <f>SVHC!C77</f>
         <v>0</v>
       </c>
       <c r="E46" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -26246,17 +26329,17 @@
         <v>0</v>
       </c>
       <c r="B47" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C47" s="123" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D47" s="121">
         <f>SVHC!C79</f>
         <v>0</v>
       </c>
       <c r="E47" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -26265,17 +26348,17 @@
         <v>0</v>
       </c>
       <c r="B48" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C48" s="123" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D48" s="121">
         <f>SVHC!C80</f>
         <v>0</v>
       </c>
       <c r="E48" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -26284,17 +26367,17 @@
         <v>0</v>
       </c>
       <c r="B49" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C49" s="123" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D49" s="121">
         <f>SVHC!C81</f>
         <v>0</v>
       </c>
       <c r="E49" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -26303,17 +26386,17 @@
         <v>0</v>
       </c>
       <c r="B50" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C50" s="123" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D50" s="121">
         <f>SVHC!C82</f>
         <v>0</v>
       </c>
       <c r="E50" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -26322,17 +26405,17 @@
         <v>0</v>
       </c>
       <c r="B51" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C51" s="123" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D51" s="121">
         <f>SVHC!C83</f>
         <v>0</v>
       </c>
       <c r="E51" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -26341,17 +26424,17 @@
         <v>0</v>
       </c>
       <c r="B52" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C52" s="123" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D52" s="121">
         <f>SVHC!C85</f>
         <v>0</v>
       </c>
       <c r="E52" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -26360,17 +26443,17 @@
         <v>0</v>
       </c>
       <c r="B53" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C53" s="123" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D53" s="121">
         <f>SVHC!C88</f>
         <v>0</v>
       </c>
       <c r="E53" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -26379,17 +26462,17 @@
         <v>0</v>
       </c>
       <c r="B54" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C54" s="123" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D54" s="121">
         <f>SVHC!C89</f>
         <v>0</v>
       </c>
       <c r="E54" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -26398,17 +26481,17 @@
         <v>0</v>
       </c>
       <c r="B55" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C55" s="123" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D55" s="121">
         <f>SVHC!C93</f>
         <v>0</v>
       </c>
       <c r="E55" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -26417,17 +26500,17 @@
         <v>0</v>
       </c>
       <c r="B56" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C56" s="123" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D56" s="121">
         <f>SVHC!C96</f>
         <v>0</v>
       </c>
       <c r="E56" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -26436,17 +26519,17 @@
         <v>0</v>
       </c>
       <c r="B57" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C57" s="123" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D57" s="121">
         <f>SVHC!C98</f>
         <v>0</v>
       </c>
       <c r="E57" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -26455,17 +26538,17 @@
         <v>0</v>
       </c>
       <c r="B58" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C58" s="123" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D58" s="121">
         <f>SVHC!C99</f>
         <v>0</v>
       </c>
       <c r="E58" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -26474,17 +26557,17 @@
         <v>0</v>
       </c>
       <c r="B59" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C59" s="123" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D59" s="121">
         <f>SVHC!C100</f>
         <v>0</v>
       </c>
       <c r="E59" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -26493,17 +26576,17 @@
         <v>0</v>
       </c>
       <c r="B60" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C60" s="123" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D60" s="121">
         <f>SVHC!C101</f>
         <v>0</v>
       </c>
       <c r="E60" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -26512,17 +26595,17 @@
         <v>0</v>
       </c>
       <c r="B61" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C61" s="123" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D61" s="121">
         <f>SVHC!C102</f>
         <v>0</v>
       </c>
       <c r="E61" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -26531,17 +26614,17 @@
         <v>0</v>
       </c>
       <c r="B62" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C62" s="123" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D62" s="121">
         <f>SVHC!C103</f>
         <v>0</v>
       </c>
       <c r="E62" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -26550,17 +26633,17 @@
         <v>0</v>
       </c>
       <c r="B63" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C63" s="123" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D63" s="121">
         <f>SVHC!C104</f>
         <v>0</v>
       </c>
       <c r="E63" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -26569,17 +26652,17 @@
         <v>0</v>
       </c>
       <c r="B64" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C64" s="123" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D64" s="121">
         <f>SVHC!C105</f>
         <v>0</v>
       </c>
       <c r="E64" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -26588,17 +26671,17 @@
         <v>0</v>
       </c>
       <c r="B65" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C65" s="123" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D65" s="121">
         <f>SVHC!C106</f>
         <v>0</v>
       </c>
       <c r="E65" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -26607,17 +26690,17 @@
         <v>0</v>
       </c>
       <c r="B66" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C66" s="123" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D66" s="121">
         <f>SVHC!C107</f>
         <v>0</v>
       </c>
       <c r="E66" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -26626,17 +26709,17 @@
         <v>0</v>
       </c>
       <c r="B67" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C67" s="123" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D67" s="121">
         <f>SVHC!C109</f>
         <v>0</v>
       </c>
       <c r="E67" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -26645,17 +26728,17 @@
         <v>0</v>
       </c>
       <c r="B68" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C68" s="123" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D68" s="121">
         <f>SVHC!C111</f>
         <v>0</v>
       </c>
       <c r="E68" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -26664,17 +26747,17 @@
         <v>0</v>
       </c>
       <c r="B69" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C69" s="123" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D69" s="121">
         <f>SVHC!C112</f>
         <v>0</v>
       </c>
       <c r="E69" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -26683,17 +26766,17 @@
         <v>0</v>
       </c>
       <c r="B70" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C70" s="123" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D70" s="121">
         <f>SVHC!C113</f>
         <v>0</v>
       </c>
       <c r="E70" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -26702,17 +26785,17 @@
         <v>0</v>
       </c>
       <c r="B71" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C71" s="123" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D71" s="121">
         <f>SVHC!C114</f>
         <v>0</v>
       </c>
       <c r="E71" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -26721,17 +26804,17 @@
         <v>0</v>
       </c>
       <c r="B72" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C72" s="123" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D72" s="121">
         <f>SVHC!C115</f>
         <v>0</v>
       </c>
       <c r="E72" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -26740,17 +26823,17 @@
         <v>0</v>
       </c>
       <c r="B73" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C73" s="123" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D73" s="121">
         <f>SVHC!C116</f>
         <v>0</v>
       </c>
       <c r="E73" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -26759,17 +26842,17 @@
         <v>0</v>
       </c>
       <c r="B74" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C74" s="123" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D74" s="121">
         <f>SVHC!C117</f>
         <v>0</v>
       </c>
       <c r="E74" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/z/data/model/SVHC_DCU.xlsx
+++ b/z/data/model/SVHC_DCU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenhuai\python\work\z\data\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B78CBB-0FAC-4E41-9D23-386234A0C348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1092E2D-4371-4BAC-B097-179E81851C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SVHC" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="442">
   <si>
     <t>No.</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -2450,6 +2450,10 @@
   </si>
   <si>
     <t>4.第一行表名不能变，同时不能重复</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2791,7 +2795,7 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3195,6 +3199,12 @@
     <xf numFmtId="180" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3327,15 +3337,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>911915</xdr:colOff>
+          <xdr:colOff>903909</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>110366</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>38722</xdr:colOff>
+          <xdr:colOff>75096</xdr:colOff>
           <xdr:row>112</xdr:row>
-          <xdr:rowOff>119684</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3703,25 +3713,25 @@
       <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1328125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.08984375" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="105" customWidth="1"/>
-    <col min="4" max="4" width="30.53125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" style="105" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="22.36328125" style="3" customWidth="1"/>
     <col min="6" max="6" width="19" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="2" customWidth="1"/>
-    <col min="9" max="10" width="8.33203125" style="34" customWidth="1"/>
-    <col min="11" max="11" width="10.46484375" style="35" customWidth="1"/>
-    <col min="12" max="12" width="13.46484375" style="35" customWidth="1"/>
-    <col min="13" max="13" width="13.53125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="15.1328125" style="35"/>
-    <col min="15" max="16384" width="15.1328125" style="3"/>
+    <col min="7" max="7" width="23.36328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="8.36328125" style="34" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" style="35" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" style="35" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15.08984375" style="35"/>
+    <col min="15" max="16384" width="15.08984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="55"/>
       <c r="C1" s="97"/>
       <c r="D1" s="47"/>
@@ -20105,7 +20115,7 @@
       <c r="XFB1" s="40"/>
       <c r="XFC1" s="40"/>
     </row>
-    <row r="2" spans="1:16383" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16383" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>432</v>
       </c>
@@ -20145,7 +20155,7 @@
       </c>
       <c r="N2" s="61"/>
     </row>
-    <row r="3" spans="1:16383" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16383" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="124">
         <v>1</v>
       </c>
@@ -20191,7 +20201,7 @@
       </c>
       <c r="N3" s="60"/>
     </row>
-    <row r="4" spans="1:16383" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16383" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="124" t="s">
         <v>321</v>
       </c>
@@ -20237,7 +20247,7 @@
       </c>
       <c r="N4" s="60"/>
     </row>
-    <row r="5" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="125" t="s">
         <v>323</v>
       </c>
@@ -20283,7 +20293,7 @@
       </c>
       <c r="N5" s="60"/>
     </row>
-    <row r="6" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="125" t="s">
         <v>325</v>
       </c>
@@ -20329,7 +20339,7 @@
       </c>
       <c r="N6" s="60"/>
     </row>
-    <row r="7" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="125"/>
       <c r="B7" s="32">
         <v>10</v>
@@ -20364,7 +20374,7 @@
       </c>
       <c r="N7" s="60"/>
     </row>
-    <row r="8" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="125" t="s">
         <v>327</v>
       </c>
@@ -20410,7 +20420,7 @@
       </c>
       <c r="N8" s="60"/>
     </row>
-    <row r="9" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="125"/>
       <c r="B9" s="32">
         <v>12</v>
@@ -20445,7 +20455,7 @@
       </c>
       <c r="N9" s="60"/>
     </row>
-    <row r="10" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="125" t="s">
         <v>330</v>
       </c>
@@ -20491,7 +20501,7 @@
       </c>
       <c r="N10" s="60"/>
     </row>
-    <row r="11" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="125" t="s">
         <v>332</v>
       </c>
@@ -20537,7 +20547,7 @@
       </c>
       <c r="N11" s="60"/>
     </row>
-    <row r="12" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="125" t="s">
         <v>334</v>
       </c>
@@ -20583,7 +20593,7 @@
       </c>
       <c r="N12" s="60"/>
     </row>
-    <row r="13" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="125"/>
       <c r="B13" s="32">
         <v>25</v>
@@ -20618,7 +20628,7 @@
       </c>
       <c r="N13" s="60"/>
     </row>
-    <row r="14" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="125" t="s">
         <v>335</v>
       </c>
@@ -20664,7 +20674,7 @@
       </c>
       <c r="N14" s="60"/>
     </row>
-    <row r="15" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="125"/>
       <c r="B15" s="32">
         <v>26</v>
@@ -20699,7 +20709,7 @@
       </c>
       <c r="N15" s="60"/>
     </row>
-    <row r="16" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16383" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="125" t="s">
         <v>337</v>
       </c>
@@ -20745,7 +20755,7 @@
       </c>
       <c r="N16" s="60"/>
     </row>
-    <row r="17" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="125"/>
       <c r="B17" s="32">
         <v>27</v>
@@ -20780,7 +20790,7 @@
       </c>
       <c r="N17" s="60"/>
     </row>
-    <row r="18" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="125"/>
       <c r="B18" s="32">
         <v>27</v>
@@ -20815,7 +20825,7 @@
       </c>
       <c r="N18" s="60"/>
     </row>
-    <row r="19" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="125" t="s">
         <v>339</v>
       </c>
@@ -20861,7 +20871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="125"/>
       <c r="B20" s="32">
         <v>28</v>
@@ -20898,7 +20908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="125"/>
       <c r="B21" s="32">
         <v>28</v>
@@ -20935,7 +20945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="125"/>
       <c r="B22" s="32">
         <v>28</v>
@@ -20972,7 +20982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="125"/>
       <c r="B23" s="32">
         <v>28</v>
@@ -21009,7 +21019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="125"/>
       <c r="B24" s="32">
         <v>28</v>
@@ -21045,7 +21055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="125"/>
       <c r="B25" s="32">
         <v>28</v>
@@ -21081,7 +21091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="125"/>
       <c r="B26" s="32">
         <v>28</v>
@@ -21117,7 +21127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="125" t="s">
         <v>344</v>
       </c>
@@ -21164,7 +21174,7 @@
       </c>
       <c r="N27" s="60"/>
     </row>
-    <row r="28" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="125"/>
       <c r="B28" s="32">
         <v>29</v>
@@ -21202,7 +21212,7 @@
       </c>
       <c r="N28" s="60"/>
     </row>
-    <row r="29" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="125"/>
       <c r="B29" s="32">
         <v>29</v>
@@ -21239,7 +21249,7 @@
       </c>
       <c r="N29" s="60"/>
     </row>
-    <row r="30" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="125"/>
       <c r="B30" s="32">
         <v>29</v>
@@ -21276,7 +21286,7 @@
       </c>
       <c r="N30" s="60"/>
     </row>
-    <row r="31" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="125"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -21313,7 +21323,7 @@
       </c>
       <c r="N31" s="60"/>
     </row>
-    <row r="32" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="125"/>
       <c r="B32" s="32">
         <v>29</v>
@@ -21350,7 +21360,7 @@
       </c>
       <c r="N32" s="60"/>
     </row>
-    <row r="33" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="125"/>
       <c r="B33" s="32">
         <v>29</v>
@@ -21387,7 +21397,7 @@
       </c>
       <c r="N33" s="60"/>
     </row>
-    <row r="34" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="125" t="s">
         <v>348</v>
       </c>
@@ -21433,7 +21443,7 @@
       </c>
       <c r="N34" s="60"/>
     </row>
-    <row r="35" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="125" t="s">
         <v>352</v>
       </c>
@@ -21479,7 +21489,7 @@
       </c>
       <c r="N35" s="60"/>
     </row>
-    <row r="36" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="125"/>
       <c r="B36" s="32">
         <v>33</v>
@@ -21514,7 +21524,7 @@
       </c>
       <c r="N36" s="60"/>
     </row>
-    <row r="37" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="125" t="s">
         <v>354</v>
       </c>
@@ -21560,7 +21570,7 @@
       </c>
       <c r="N37" s="60"/>
     </row>
-    <row r="38" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="125"/>
       <c r="B38" s="32">
         <v>34</v>
@@ -21595,7 +21605,7 @@
       </c>
       <c r="N38" s="60"/>
     </row>
-    <row r="39" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="125" t="s">
         <v>356</v>
       </c>
@@ -21641,7 +21651,7 @@
       </c>
       <c r="N39" s="60"/>
     </row>
-    <row r="40" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="125"/>
       <c r="B40" s="32">
         <v>35</v>
@@ -21676,7 +21686,7 @@
       </c>
       <c r="N40" s="60"/>
     </row>
-    <row r="41" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="125" t="s">
         <v>363</v>
       </c>
@@ -21722,7 +21732,7 @@
       </c>
       <c r="N41" s="60"/>
     </row>
-    <row r="42" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="125" t="s">
         <v>361</v>
       </c>
@@ -21768,7 +21778,7 @@
       </c>
       <c r="N42" s="60"/>
     </row>
-    <row r="43" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="125" t="s">
         <v>358</v>
       </c>
@@ -21814,7 +21824,7 @@
       </c>
       <c r="N43" s="60"/>
     </row>
-    <row r="44" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="125" t="s">
         <v>366</v>
       </c>
@@ -21860,7 +21870,7 @@
       </c>
       <c r="N44" s="60"/>
     </row>
-    <row r="45" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="125" t="s">
         <v>367</v>
       </c>
@@ -21906,7 +21916,7 @@
       </c>
       <c r="N45" s="60"/>
     </row>
-    <row r="46" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="125" t="s">
         <v>368</v>
       </c>
@@ -21952,7 +21962,7 @@
       </c>
       <c r="N46" s="60"/>
     </row>
-    <row r="47" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="125" t="s">
         <v>350</v>
       </c>
@@ -21998,7 +22008,7 @@
       </c>
       <c r="N47" s="60"/>
     </row>
-    <row r="48" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="125" t="s">
         <v>369</v>
       </c>
@@ -22044,7 +22054,7 @@
       </c>
       <c r="N48" s="60"/>
     </row>
-    <row r="49" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="125" t="s">
         <v>359</v>
       </c>
@@ -22090,7 +22100,7 @@
       </c>
       <c r="N49" s="60"/>
     </row>
-    <row r="50" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="125"/>
       <c r="B50" s="32">
         <v>46</v>
@@ -22129,7 +22139,7 @@
       </c>
       <c r="N50" s="60"/>
     </row>
-    <row r="51" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="125"/>
       <c r="B51" s="32">
         <v>46</v>
@@ -22163,7 +22173,7 @@
       </c>
       <c r="N51" s="60"/>
     </row>
-    <row r="52" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="125" t="s">
         <v>370</v>
       </c>
@@ -22209,7 +22219,7 @@
       </c>
       <c r="N52" s="60"/>
     </row>
-    <row r="53" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="125"/>
       <c r="B53" s="32">
         <v>48</v>
@@ -22244,7 +22254,7 @@
       </c>
       <c r="N53" s="60"/>
     </row>
-    <row r="54" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="125" t="s">
         <v>371</v>
       </c>
@@ -22290,7 +22300,7 @@
       </c>
       <c r="N54" s="60"/>
     </row>
-    <row r="55" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="125" t="s">
         <v>372</v>
       </c>
@@ -22336,7 +22346,7 @@
       </c>
       <c r="N55" s="60"/>
     </row>
-    <row r="56" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="125"/>
       <c r="B56" s="96">
         <v>61</v>
@@ -22371,7 +22381,7 @@
       </c>
       <c r="N56" s="60"/>
     </row>
-    <row r="57" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="125" t="s">
         <v>373</v>
       </c>
@@ -22417,7 +22427,7 @@
       </c>
       <c r="N57" s="60"/>
     </row>
-    <row r="58" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="125" t="s">
         <v>374</v>
       </c>
@@ -22463,7 +22473,7 @@
       </c>
       <c r="N58" s="60"/>
     </row>
-    <row r="59" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="125" t="s">
         <v>375</v>
       </c>
@@ -22509,7 +22519,7 @@
       </c>
       <c r="N59" s="60"/>
     </row>
-    <row r="60" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="125" t="s">
         <v>376</v>
       </c>
@@ -22555,7 +22565,7 @@
       </c>
       <c r="N60" s="60"/>
     </row>
-    <row r="61" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="125" t="s">
         <v>377</v>
       </c>
@@ -22601,7 +22611,7 @@
       </c>
       <c r="N61" s="60"/>
     </row>
-    <row r="62" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="125"/>
       <c r="B62" s="32">
         <v>68</v>
@@ -22636,7 +22646,7 @@
       </c>
       <c r="N62" s="60"/>
     </row>
-    <row r="63" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="125" t="s">
         <v>379</v>
       </c>
@@ -22682,7 +22692,7 @@
       </c>
       <c r="N63" s="60"/>
     </row>
-    <row r="64" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="125"/>
       <c r="B64" s="32">
         <v>70</v>
@@ -22717,7 +22727,7 @@
       </c>
       <c r="N64" s="60"/>
     </row>
-    <row r="65" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="125"/>
       <c r="B65" s="32">
         <v>70</v>
@@ -22752,7 +22762,7 @@
       </c>
       <c r="N65" s="60"/>
     </row>
-    <row r="66" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="125" t="s">
         <v>381</v>
       </c>
@@ -22797,7 +22807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="125"/>
       <c r="B67" s="32">
         <v>71</v>
@@ -22831,7 +22841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="125" t="s">
         <v>383</v>
       </c>
@@ -22876,7 +22886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="125" t="s">
         <v>385</v>
       </c>
@@ -22921,7 +22931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="125" t="s">
         <v>386</v>
       </c>
@@ -22967,7 +22977,7 @@
       </c>
       <c r="N70" s="60"/>
     </row>
-    <row r="71" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="125" t="s">
         <v>387</v>
       </c>
@@ -23012,7 +23022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="125" t="s">
         <v>388</v>
       </c>
@@ -23057,7 +23067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="125" t="s">
         <v>389</v>
       </c>
@@ -23102,7 +23112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="125" t="s">
         <v>390</v>
       </c>
@@ -23147,7 +23157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="125" t="s">
         <v>349</v>
       </c>
@@ -23192,7 +23202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="125" t="s">
         <v>342</v>
       </c>
@@ -23237,7 +23247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="125" t="s">
         <v>391</v>
       </c>
@@ -23282,7 +23292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="125"/>
       <c r="B78" s="32">
         <v>108</v>
@@ -23316,7 +23326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="125" t="s">
         <v>393</v>
       </c>
@@ -23361,7 +23371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="125" t="s">
         <v>394</v>
       </c>
@@ -23406,7 +23416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="125" t="s">
         <v>365</v>
       </c>
@@ -23451,7 +23461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="125" t="s">
         <v>395</v>
       </c>
@@ -23496,7 +23506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="125" t="s">
         <v>396</v>
       </c>
@@ -23541,7 +23551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="125"/>
       <c r="B84" s="32">
         <v>113</v>
@@ -23575,7 +23585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="125" t="s">
         <v>398</v>
       </c>
@@ -23620,7 +23630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="125"/>
       <c r="B86" s="32">
         <v>114</v>
@@ -23654,7 +23664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="125"/>
       <c r="B87" s="32">
         <v>114</v>
@@ -23688,7 +23698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="125" t="s">
         <v>399</v>
       </c>
@@ -23733,7 +23743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="125" t="s">
         <v>401</v>
       </c>
@@ -23778,7 +23788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="125"/>
       <c r="B90" s="32">
         <v>116</v>
@@ -23812,7 +23822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="125"/>
       <c r="B91" s="32">
         <v>116</v>
@@ -23848,7 +23858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="125"/>
       <c r="B92" s="32">
         <v>116</v>
@@ -23882,7 +23892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="125" t="s">
         <v>403</v>
       </c>
@@ -23927,7 +23937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="125"/>
       <c r="B94" s="32">
         <v>117</v>
@@ -23961,7 +23971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="125"/>
       <c r="B95" s="32">
         <v>117</v>
@@ -23995,7 +24005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="125" t="s">
         <v>404</v>
       </c>
@@ -24040,7 +24050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="125"/>
       <c r="B97" s="32">
         <v>118</v>
@@ -24074,7 +24084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="125" t="s">
         <v>406</v>
       </c>
@@ -24119,7 +24129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="125" t="s">
         <v>407</v>
       </c>
@@ -24164,7 +24174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="125" t="s">
         <v>408</v>
       </c>
@@ -24209,7 +24219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="125" t="s">
         <v>409</v>
       </c>
@@ -24254,7 +24264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="125" t="s">
         <v>410</v>
       </c>
@@ -24299,7 +24309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="125" t="s">
         <v>411</v>
       </c>
@@ -24344,7 +24354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="125" t="s">
         <v>345</v>
       </c>
@@ -24389,7 +24399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="125" t="s">
         <v>412</v>
       </c>
@@ -24434,7 +24444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="125" t="s">
         <v>413</v>
       </c>
@@ -24479,7 +24489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="125" t="s">
         <v>414</v>
       </c>
@@ -24524,7 +24534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="125"/>
       <c r="B108" s="57">
         <v>154</v>
@@ -24558,7 +24568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="125" t="s">
         <v>415</v>
       </c>
@@ -24603,7 +24613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="125"/>
       <c r="B110" s="57">
         <v>155</v>
@@ -24637,7 +24647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="125" t="s">
         <v>417</v>
       </c>
@@ -24682,7 +24692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="125" t="s">
         <v>420</v>
       </c>
@@ -24727,7 +24737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="125" t="s">
         <v>422</v>
       </c>
@@ -24772,7 +24782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="125" t="s">
         <v>424</v>
       </c>
@@ -24817,7 +24827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="125" t="s">
         <v>425</v>
       </c>
@@ -24862,7 +24872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="125" t="s">
         <v>427</v>
       </c>
@@ -24907,7 +24917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="125" t="s">
         <v>429</v>
       </c>
@@ -24952,7 +24962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="125"/>
       <c r="B118" s="32">
         <v>191</v>
@@ -24986,7 +24996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" s="35" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" s="35" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="46"/>
       <c r="C119" s="105"/>
       <c r="D119" s="41"/>
@@ -24998,7 +25008,7 @@
       <c r="J119" s="34"/>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="1:13" s="35" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" s="35" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="46"/>
       <c r="C120" s="105"/>
       <c r="D120" s="41"/>
@@ -25046,15 +25056,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>909638</xdr:colOff>
+                <xdr:colOff>901700</xdr:colOff>
                 <xdr:row>111</xdr:row>
-                <xdr:rowOff>109538</xdr:rowOff>
+                <xdr:rowOff>107950</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>112</xdr:row>
-                <xdr:rowOff>119063</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -25074,18 +25084,18 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.73046875" style="126" customWidth="1"/>
-    <col min="2" max="2" width="12.06640625" style="131" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="126" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="131" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="128" t="s">
         <v>434</v>
       </c>
@@ -25098,8 +25108,11 @@
       <c r="D1" s="127" t="s">
         <v>256</v>
       </c>
+      <c r="E1" s="134" t="s">
+        <v>441</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="128">
         <v>1</v>
       </c>
@@ -25108,8 +25121,9 @@
         <v>257</v>
       </c>
       <c r="D2" s="127"/>
+      <c r="E2" s="135"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="128">
         <v>2</v>
       </c>
@@ -25121,8 +25135,9 @@
         <v>258</v>
       </c>
       <c r="D3" s="127"/>
+      <c r="E3" s="135"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="128">
         <v>3</v>
       </c>
@@ -25134,8 +25149,9 @@
         <v>259</v>
       </c>
       <c r="D4" s="127"/>
+      <c r="E4" s="135"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="128">
         <v>4</v>
       </c>
@@ -25147,8 +25163,9 @@
         <v>260</v>
       </c>
       <c r="D5" s="127"/>
+      <c r="E5" s="135"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="128">
         <v>5</v>
       </c>
@@ -25160,8 +25177,9 @@
         <v>261</v>
       </c>
       <c r="D6" s="127"/>
+      <c r="E6" s="135"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="128">
         <v>6</v>
       </c>
@@ -25173,8 +25191,9 @@
         <v>262</v>
       </c>
       <c r="D7" s="127"/>
+      <c r="E7" s="135"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="128">
         <v>7</v>
       </c>
@@ -25186,8 +25205,9 @@
         <v>263</v>
       </c>
       <c r="D8" s="127"/>
+      <c r="E8" s="135"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="128">
         <v>8</v>
       </c>
@@ -25199,8 +25219,9 @@
         <v>264</v>
       </c>
       <c r="D9" s="127"/>
+      <c r="E9" s="135"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="128">
         <v>9</v>
       </c>
@@ -25212,8 +25233,9 @@
         <v>65</v>
       </c>
       <c r="D10" s="127"/>
+      <c r="E10" s="135"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="128">
         <v>10</v>
       </c>
@@ -25225,8 +25247,9 @@
         <v>265</v>
       </c>
       <c r="D11" s="127"/>
+      <c r="E11" s="135"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="128">
         <v>11</v>
       </c>
@@ -25238,8 +25261,9 @@
         <v>266</v>
       </c>
       <c r="D12" s="127"/>
+      <c r="E12" s="135"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="128">
         <v>12</v>
       </c>
@@ -25251,8 +25275,9 @@
         <v>267</v>
       </c>
       <c r="D13" s="127"/>
+      <c r="E13" s="135"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="128">
         <v>13</v>
       </c>
@@ -25264,8 +25289,9 @@
         <v>268</v>
       </c>
       <c r="D14" s="127"/>
+      <c r="E14" s="135"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="128">
         <v>14</v>
       </c>
@@ -25277,8 +25303,9 @@
         <v>269</v>
       </c>
       <c r="D15" s="127"/>
+      <c r="E15" s="135"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="128">
         <v>15</v>
       </c>
@@ -25290,8 +25317,9 @@
         <v>270</v>
       </c>
       <c r="D16" s="127"/>
+      <c r="E16" s="135"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="128">
         <v>16</v>
       </c>
@@ -25303,8 +25331,9 @@
         <v>271</v>
       </c>
       <c r="D17" s="127"/>
+      <c r="E17" s="135"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="128">
         <v>17</v>
       </c>
@@ -25316,8 +25345,9 @@
         <v>272</v>
       </c>
       <c r="D18" s="127"/>
+      <c r="E18" s="135"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="128">
         <v>18</v>
       </c>
@@ -25329,8 +25359,9 @@
         <v>273</v>
       </c>
       <c r="D19" s="127"/>
+      <c r="E19" s="135"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="128">
         <v>19</v>
       </c>
@@ -25342,8 +25373,9 @@
         <v>274</v>
       </c>
       <c r="D20" s="127"/>
+      <c r="E20" s="135"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="128">
         <v>20</v>
       </c>
@@ -25355,8 +25387,9 @@
         <v>64</v>
       </c>
       <c r="D21" s="127"/>
+      <c r="E21" s="135"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="132" t="s">
         <v>435</v>
       </c>
@@ -25366,7 +25399,7 @@
       <c r="E27" s="132"/>
       <c r="F27" s="132"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="133" t="s">
         <v>436</v>
       </c>
@@ -25376,7 +25409,7 @@
       <c r="E28" s="133"/>
       <c r="F28" s="133"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="133" t="s">
         <v>437</v>
       </c>
@@ -25386,7 +25419,7 @@
       <c r="E29" s="133"/>
       <c r="F29" s="133"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="133" t="s">
         <v>438</v>
       </c>
@@ -25396,7 +25429,7 @@
       <c r="E30" s="133"/>
       <c r="F30" s="133"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="133" t="s">
         <v>440</v>
       </c>
@@ -25435,17 +25468,17 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="118" customWidth="1"/>
-    <col min="2" max="2" width="24.86328125" style="122" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="118" customWidth="1"/>
-    <col min="4" max="4" width="18.46484375" style="118" customWidth="1"/>
-    <col min="5" max="7" width="8.86328125" style="118"/>
-    <col min="8" max="16384" width="8.86328125" style="116"/>
+    <col min="1" max="1" width="26.36328125" style="118" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="122" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="118" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="118" customWidth="1"/>
+    <col min="5" max="7" width="8.81640625" style="118"/>
+    <col min="8" max="16384" width="8.81640625" style="116"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="117" t="s">
         <v>278</v>
       </c>
@@ -25468,7 +25501,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="119">
         <f>Data!B2</f>
         <v>0</v>
@@ -25487,7 +25520,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="119">
         <f>A2</f>
         <v>0</v>
@@ -25506,7 +25539,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="121">
         <f>A2</f>
         <v>0</v>
@@ -25525,7 +25558,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="121">
         <f t="shared" ref="A5:A68" si="0">A3</f>
         <v>0</v>
@@ -25544,7 +25577,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="121">
         <f>A4</f>
         <v>0</v>
@@ -25563,7 +25596,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25582,7 +25615,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25601,7 +25634,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25620,7 +25653,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25639,7 +25672,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25658,7 +25691,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25677,7 +25710,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25696,7 +25729,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25715,7 +25748,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25734,7 +25767,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25753,7 +25786,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25772,7 +25805,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25791,7 +25824,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25810,7 +25843,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25829,7 +25862,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25848,7 +25881,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25867,7 +25900,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25886,7 +25919,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25905,7 +25938,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25924,7 +25957,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25943,7 +25976,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25962,7 +25995,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25981,7 +26014,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26000,7 +26033,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26019,7 +26052,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26038,7 +26071,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26057,7 +26090,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26076,7 +26109,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26095,7 +26128,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26114,7 +26147,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26133,7 +26166,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26152,7 +26185,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26171,7 +26204,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26190,7 +26223,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26209,7 +26242,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26228,7 +26261,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26247,7 +26280,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26266,7 +26299,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26285,7 +26318,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26304,7 +26337,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26323,7 +26356,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26342,7 +26375,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26361,7 +26394,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26380,7 +26413,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26399,7 +26432,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26418,7 +26451,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26437,7 +26470,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26456,7 +26489,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26475,7 +26508,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26494,7 +26527,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26513,7 +26546,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26532,7 +26565,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26551,7 +26584,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26570,7 +26603,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26589,7 +26622,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26608,7 +26641,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26627,7 +26660,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26646,7 +26679,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26665,7 +26698,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26684,7 +26717,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26703,7 +26736,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26722,7 +26755,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26741,7 +26774,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="121">
         <f t="shared" ref="A69:A74" si="1">A67</f>
         <v>0</v>
@@ -26760,7 +26793,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26779,7 +26812,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26798,7 +26831,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26817,7 +26850,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26836,7 +26869,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
